--- a/Crime_R_Class_20Nov2021.xlsx
+++ b/Crime_R_Class_20Nov2021.xlsx
@@ -8,24 +8,52 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\StatisticsCaseStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53589072-D75F-44BC-8101-D7537F3BBD14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2480B363-CFC7-430F-9383-6ADED0137C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="687" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Crime_R" sheetId="1" r:id="rId1"/>
     <sheet name="Crime2Cols" sheetId="11" r:id="rId2"/>
     <sheet name="Crime_2States" sheetId="9" r:id="rId3"/>
     <sheet name="1_Descriptive" sheetId="14" r:id="rId4"/>
-    <sheet name="2_Freq_YouthEmp" sheetId="18" r:id="rId5"/>
-    <sheet name="2_Freq_CrimeRate" sheetId="4" r:id="rId6"/>
-    <sheet name="3_TwoSample_EqVarOneTail" sheetId="16" r:id="rId7"/>
-    <sheet name="4_Paired_T_Test_2Col" sheetId="17" r:id="rId8"/>
-    <sheet name="5_ChiSq" sheetId="19" r:id="rId9"/>
+    <sheet name="Median" sheetId="20" r:id="rId5"/>
+    <sheet name="Outliers" sheetId="21" r:id="rId6"/>
+    <sheet name="2_Freq_YouthEmp" sheetId="18" r:id="rId7"/>
+    <sheet name="2_Freq_CrimeRate" sheetId="4" r:id="rId8"/>
+    <sheet name="3_TwoSample_EqVarOneTail" sheetId="16" r:id="rId9"/>
+    <sheet name="4_Paired_T_Test_2Col" sheetId="17" r:id="rId10"/>
+    <sheet name="5_ChiSq" sheetId="19" r:id="rId11"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Crime_R!$A$1:$AC$48</definedName>
-    <definedName name="CrimeRate">Crime_R!$A:$A</definedName>
+    <definedName name="BelowWage">Crime_R!$N$2:$N$48</definedName>
+    <definedName name="BelowWage10">Crime_R!$AA$2:$AA$48</definedName>
+    <definedName name="CrimeRate">Crime_R!$A$2:$A$48</definedName>
+    <definedName name="CrimeRate10">Crime_R!$O$2:$O$48</definedName>
+    <definedName name="Education">Crime_R!$D$2:$D$48</definedName>
+    <definedName name="Education10">Crime_R!$Q$2:$Q$48</definedName>
+    <definedName name="ExpenditureYear0">Crime_R!$E$2:$E$48</definedName>
+    <definedName name="ExpenditureYear10">Crime_R!$R$2:$R$48</definedName>
+    <definedName name="HighYouthUnemploy">Crime_R!$L$2:$L$48</definedName>
+    <definedName name="HighYouthUnemploy10">Crime_R!$Y$2:$Y$48</definedName>
+    <definedName name="LabourForce">Crime_R!$F$2:$F$48</definedName>
+    <definedName name="LabourForce10">Crime_R!$S$2:$S$48</definedName>
+    <definedName name="Males">Crime_R!$G$2:$G$48</definedName>
+    <definedName name="Males10">Crime_R!$T$2:$T$48</definedName>
+    <definedName name="MatureUnemploy10">Crime_R!$X$2:$X$48</definedName>
+    <definedName name="MatureUnemployment">Crime_R!$K$2:$K$48</definedName>
+    <definedName name="MoreMales">Crime_R!$H$2:$H$48</definedName>
+    <definedName name="MoreMales10">Crime_R!$U$2:$U$48</definedName>
+    <definedName name="Southern">Crime_R!$C$2:$C$48</definedName>
+    <definedName name="StateSize">Crime_R!$I$2:$I$48</definedName>
+    <definedName name="StateSize10">Crime_R!$V$2:$V$48</definedName>
+    <definedName name="Wage">Crime_R!$M$2:$M$48</definedName>
+    <definedName name="Wage10">Crime_R!$Z$2:$Z$48</definedName>
+    <definedName name="Youth">Crime_R!$B$2:$B$48</definedName>
+    <definedName name="Youth10">Crime_R!$P$2:$P$48</definedName>
+    <definedName name="YouthUnemploy10">Crime_R!$W$2:$W$48</definedName>
+    <definedName name="YouthUnemployment">Crime_R!$J$2:$J$48</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -43,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
   <si>
     <t>CrimeRate</t>
   </si>
@@ -133,9 +161,6 @@
   </si>
   <si>
     <t>Median</t>
-  </si>
-  <si>
-    <t>Crime Rate</t>
   </si>
   <si>
     <t>More</t>
@@ -253,6 +278,15 @@
   </si>
   <si>
     <t>Before</t>
+  </si>
+  <si>
+    <t>Count</t>
+  </si>
+  <si>
+    <t>Outliers</t>
+  </si>
+  <si>
+    <t>IQR Range</t>
   </si>
 </sst>
 </file>
@@ -771,7 +805,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -785,6 +819,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1735,6 +1770,72 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571500</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180974</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>328196</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Mean, Median, and Mode in Statistics | by Nhan Tran | Medium">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AE745ED-119F-467D-9AD4-F013AECCD9F0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="4381500" y="371474"/>
+          <a:ext cx="9510296" cy="5229225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -2039,39 +2140,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="J13" sqref="D10:J13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.5703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.28515625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="18.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="19.7109375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="5.7109375" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="20.28515625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="6.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="8.42578125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="16.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="17.5703125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="19" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="8.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="29" max="29" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="30" max="30" width="14.28515625" bestFit="1" customWidth="1"/>
   </cols>
@@ -6066,6 +6167,127 @@
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB8F047-63CC-49EB-90B1-046E40D3C508}">
+  <dimension ref="L3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="12:12" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="L3" s="5" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C63F9E2-7EAA-4A70-B52E-D02A007E6775}">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B2" s="8">
+        <v>0.2</v>
+      </c>
+      <c r="C2" s="8">
+        <v>0.3</v>
+      </c>
+      <c r="D2" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="E2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>62</v>
+      </c>
+      <c r="B4">
+        <v>121</v>
+      </c>
+      <c r="C4">
+        <v>288</v>
+      </c>
+      <c r="D4">
+        <v>91</v>
+      </c>
+      <c r="E4">
+        <f>SUM(B4:D4)</f>
+        <v>500</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>61</v>
+      </c>
+      <c r="B5">
+        <f>B2*$E$4</f>
+        <v>100</v>
+      </c>
+      <c r="C5">
+        <f t="shared" ref="C5:D5" si="0">C2*$E$4</f>
+        <v>150</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H7" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" t="s">
+        <v>67</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -6488,10 +6710,10 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>47</v>
+      </c>
+      <c r="B1" t="s">
         <v>48</v>
-      </c>
-      <c r="B1" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
@@ -6685,124 +6907,1049 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B18197A-4D4E-49F3-8817-E5438D0417D9}">
-  <dimension ref="A1:B29"/>
+  <dimension ref="A1:AC30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J23" sqref="J23"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="1" max="1" width="3.7109375" customWidth="1"/>
+    <col min="2" max="2" width="21.5703125" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="6.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" t="s">
+        <v>6</v>
+      </c>
+      <c r="J1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L1" t="s">
+        <v>9</v>
+      </c>
+      <c r="M1" t="s">
+        <v>10</v>
+      </c>
+      <c r="N1" t="s">
+        <v>11</v>
+      </c>
+      <c r="O1" t="s">
+        <v>12</v>
+      </c>
+      <c r="P1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>14</v>
+      </c>
+      <c r="R1" t="s">
+        <v>15</v>
+      </c>
+      <c r="S1" t="s">
+        <v>16</v>
+      </c>
+      <c r="T1" t="s">
+        <v>17</v>
+      </c>
+      <c r="U1" t="s">
+        <v>18</v>
+      </c>
+      <c r="V1" t="s">
+        <v>19</v>
+      </c>
+      <c r="W1" t="s">
+        <v>20</v>
+      </c>
+      <c r="X1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="C3">
+        <f ca="1">COUNT(INDIRECT(C1))</f>
+        <v>47</v>
+      </c>
+      <c r="D3">
+        <f t="shared" ref="D3:N3" ca="1" si="0">COUNT(INDIRECT(D1))</f>
+        <v>47</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="F3">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="G3">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="J3">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="K3">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="L3">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="M3">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+      <c r="N3">
+        <f t="shared" ca="1" si="0"/>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C4" s="9">
+        <f ca="1">AVERAGE(INDIRECT(C1))</f>
+        <v>102.80851063829788</v>
+      </c>
+      <c r="D4" s="9">
+        <f t="shared" ref="D4:N4" ca="1" si="1">AVERAGE(INDIRECT(D1))</f>
+        <v>138.57446808510639</v>
+      </c>
+      <c r="E4" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.48936170212765956</v>
+      </c>
+      <c r="F4" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>12.391489361702124</v>
+      </c>
+      <c r="G4" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>85</v>
+      </c>
+      <c r="H4" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>561.19148936170211</v>
+      </c>
+      <c r="I4" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>983.02127659574467</v>
+      </c>
+      <c r="J4" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.19148936170212766</v>
+      </c>
+      <c r="K4" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>36.617021276595743</v>
+      </c>
+      <c r="L4" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>95.468085106382972</v>
+      </c>
+      <c r="M4" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>33.978723404255319</v>
+      </c>
+      <c r="N4" s="9">
+        <f t="shared" ca="1" si="1"/>
+        <v>0.31914893617021278</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C5">
+        <f ca="1">MEDIAN(INDIRECT(C1))</f>
+        <v>103</v>
+      </c>
+      <c r="D5">
+        <f t="shared" ref="D5:N5" ca="1" si="2">MEDIAN(INDIRECT(D1))</f>
+        <v>136</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <f t="shared" ca="1" si="2"/>
+        <v>12.4</v>
+      </c>
+      <c r="G5">
+        <f t="shared" ca="1" si="2"/>
+        <v>78</v>
+      </c>
+      <c r="H5">
+        <f t="shared" ca="1" si="2"/>
+        <v>560</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ca="1" si="2"/>
+        <v>977</v>
+      </c>
+      <c r="J5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" ca="1" si="2"/>
+        <v>25</v>
+      </c>
+      <c r="L5">
+        <f t="shared" ca="1" si="2"/>
+        <v>92</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ca="1" si="2"/>
+        <v>34</v>
+      </c>
+      <c r="N5">
+        <f t="shared" ca="1" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+      <c r="C7">
+        <f ca="1">MIN(INDIRECT(C1))</f>
+        <v>45.5</v>
+      </c>
+      <c r="D7">
+        <f t="shared" ref="D7:N7" ca="1" si="3">MIN(INDIRECT(D1))</f>
+        <v>119</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <f t="shared" ca="1" si="3"/>
+        <v>10</v>
+      </c>
+      <c r="G7">
+        <f t="shared" ca="1" si="3"/>
+        <v>45</v>
+      </c>
+      <c r="H7">
+        <f t="shared" ca="1" si="3"/>
+        <v>480</v>
+      </c>
+      <c r="I7">
+        <f t="shared" ca="1" si="3"/>
+        <v>934</v>
+      </c>
+      <c r="J7">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <f t="shared" ca="1" si="3"/>
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <f t="shared" ca="1" si="3"/>
+        <v>70</v>
+      </c>
+      <c r="M7">
+        <f t="shared" ca="1" si="3"/>
+        <v>20</v>
+      </c>
+      <c r="N7">
+        <f t="shared" ca="1" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="C8">
+        <f ca="1">MAX(INDIRECT(C1))</f>
+        <v>161.80000000000001</v>
+      </c>
+      <c r="D8">
+        <f t="shared" ref="D8:N8" ca="1" si="4">MAX(INDIRECT(D1))</f>
+        <v>177</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <f t="shared" ca="1" si="4"/>
+        <v>15.1</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ca="1" si="4"/>
+        <v>166</v>
+      </c>
+      <c r="H8">
+        <f t="shared" ca="1" si="4"/>
+        <v>641</v>
+      </c>
+      <c r="I8">
+        <f t="shared" ca="1" si="4"/>
+        <v>1071</v>
+      </c>
+      <c r="J8">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" ca="1" si="4"/>
+        <v>168</v>
+      </c>
+      <c r="L8">
+        <f t="shared" ca="1" si="4"/>
+        <v>142</v>
+      </c>
+      <c r="M8">
+        <f t="shared" ca="1" si="4"/>
+        <v>58</v>
+      </c>
+      <c r="N8">
+        <f t="shared" ca="1" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10">
+        <f ca="1">KURT(INDIRECT(C1))</f>
+        <v>-0.53753746729262408</v>
+      </c>
+      <c r="D10">
+        <f t="shared" ref="D10:N10" ca="1" si="5">KURT(INDIRECT(D1))</f>
+        <v>0.72619579246412203</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="5"/>
+        <v>-2.0888888888888886</v>
+      </c>
+      <c r="F10">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.38528463519604506</v>
+      </c>
+      <c r="G10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.4753837078788119</v>
+      </c>
+      <c r="H10">
+        <f t="shared" ca="1" si="5"/>
+        <v>-0.7482002027361796</v>
+      </c>
+      <c r="I10">
+        <f t="shared" ca="1" si="5"/>
+        <v>1.0454756019396472</v>
+      </c>
+      <c r="J10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.65132021974127285</v>
+      </c>
+      <c r="K10">
+        <f t="shared" ca="1" si="5"/>
+        <v>3.8708135040485221</v>
+      </c>
+      <c r="L10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.1336819308651358</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ca="1" si="5"/>
+        <v>0.48783890665261564</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ca="1" si="5"/>
+        <v>-1.4194949494949494</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C11">
+        <f ca="1">SKEW(INDIRECT(C1))</f>
+        <v>0.14188953405746785</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:N11" ca="1" si="6">SKEW(INDIRECT(D1))</f>
+        <v>0.87710806278831477</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="6"/>
+        <v>4.3979044766807494E-2</v>
+      </c>
+      <c r="F11">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.3953368280322766E-2</v>
+      </c>
+      <c r="G11">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.94989564317834552</v>
+      </c>
+      <c r="H11">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.28885056630412842</v>
+      </c>
+      <c r="I11">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.0599175608911393</v>
+      </c>
+      <c r="J11">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.6203180721162036</v>
+      </c>
+      <c r="K11">
+        <f t="shared" ca="1" si="6"/>
+        <v>1.9787412574437762</v>
+      </c>
+      <c r="L11">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.82690890190711375</v>
+      </c>
+      <c r="M11">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.57867685537287972</v>
+      </c>
+      <c r="N11">
+        <f t="shared" ca="1" si="6"/>
+        <v>0.80175861231918377</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C13">
+        <f ca="1">_xlfn.PERCENTILE.EXC(INDIRECT(C1),0.75)</f>
+        <v>121.6</v>
+      </c>
+      <c r="D13">
+        <f t="shared" ref="D13:N13" ca="1" si="7">_xlfn.PERCENTILE.EXC(INDIRECT(D1),0.75)</f>
+        <v>147</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <f t="shared" ca="1" si="7"/>
+        <v>13.2</v>
+      </c>
+      <c r="G13">
+        <f t="shared" ca="1" si="7"/>
+        <v>106</v>
+      </c>
+      <c r="H13">
+        <f t="shared" ca="1" si="7"/>
+        <v>595</v>
+      </c>
+      <c r="I13">
+        <f t="shared" ca="1" si="7"/>
+        <v>994</v>
+      </c>
+      <c r="J13">
+        <f t="shared" ca="1" si="7"/>
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <f t="shared" ca="1" si="7"/>
+        <v>43</v>
+      </c>
+      <c r="L13">
+        <f t="shared" ca="1" si="7"/>
+        <v>105</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ca="1" si="7"/>
+        <v>39</v>
+      </c>
+      <c r="N13">
+        <f t="shared" ca="1" si="7"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14">
+        <f ca="1">_xlfn.PERCENTILE.EXC(INDIRECT(C1),0.9)</f>
+        <v>146.18</v>
+      </c>
+      <c r="D14">
+        <f t="shared" ref="D14:N14" ca="1" si="8">_xlfn.PERCENTILE.EXC(INDIRECT(D1),0.9)</f>
+        <v>157</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <f t="shared" ca="1" si="8"/>
+        <v>13.82</v>
+      </c>
+      <c r="G14">
+        <f t="shared" ca="1" si="8"/>
+        <v>124.00000000000001</v>
+      </c>
+      <c r="H14">
+        <f t="shared" ca="1" si="8"/>
+        <v>625.4</v>
+      </c>
+      <c r="I14">
+        <f t="shared" ca="1" si="8"/>
+        <v>1030.8</v>
+      </c>
+      <c r="J14">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <f t="shared" ca="1" si="8"/>
+        <v>97.800000000000011</v>
+      </c>
+      <c r="L14">
+        <f t="shared" ca="1" si="8"/>
+        <v>125.20000000000002</v>
+      </c>
+      <c r="M14">
+        <f t="shared" ca="1" si="8"/>
+        <v>43.800000000000011</v>
+      </c>
+      <c r="N14">
+        <f t="shared" ca="1" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <f ca="1">MEDIAN(INDIRECT(C1))</f>
+        <v>103</v>
+      </c>
+      <c r="D17">
+        <f t="shared" ref="D17:N17" ca="1" si="9">MEDIAN(INDIRECT(D1))</f>
+        <v>136</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <f t="shared" ca="1" si="9"/>
+        <v>12.4</v>
+      </c>
+      <c r="G17">
+        <f t="shared" ca="1" si="9"/>
+        <v>78</v>
+      </c>
+      <c r="H17">
+        <f t="shared" ca="1" si="9"/>
+        <v>560</v>
+      </c>
+      <c r="I17">
+        <f t="shared" ca="1" si="9"/>
+        <v>977</v>
+      </c>
+      <c r="J17">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <f t="shared" ca="1" si="9"/>
+        <v>25</v>
+      </c>
+      <c r="L17">
+        <f t="shared" ca="1" si="9"/>
+        <v>92</v>
+      </c>
+      <c r="M17">
+        <f t="shared" ca="1" si="9"/>
+        <v>34</v>
+      </c>
+      <c r="N17">
+        <f t="shared" ca="1" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18">
+        <f ca="1">_xlfn.PERCENTILE.EXC(INDIRECT(C1),0.5)</f>
+        <v>103</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:N18" ca="1" si="10">_xlfn.PERCENTILE.EXC(INDIRECT(D1),0.5)</f>
+        <v>136</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <f t="shared" ca="1" si="10"/>
+        <v>12.4</v>
+      </c>
+      <c r="G18">
+        <f t="shared" ca="1" si="10"/>
+        <v>78</v>
+      </c>
+      <c r="H18">
+        <f t="shared" ca="1" si="10"/>
+        <v>560</v>
+      </c>
+      <c r="I18">
+        <f t="shared" ca="1" si="10"/>
+        <v>977</v>
+      </c>
+      <c r="J18">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <f t="shared" ca="1" si="10"/>
+        <v>25</v>
+      </c>
+      <c r="L18">
+        <f t="shared" ca="1" si="10"/>
+        <v>92</v>
+      </c>
+      <c r="M18">
+        <f t="shared" ca="1" si="10"/>
+        <v>34</v>
+      </c>
+      <c r="N18">
+        <f t="shared" ca="1" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B19" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
+      <c r="C19">
+        <f ca="1">_xlfn.QUARTILE.INC(INDIRECT(C1),2)</f>
+        <v>103</v>
+      </c>
+      <c r="D19">
+        <f t="shared" ref="D19:N19" ca="1" si="11">_xlfn.QUARTILE.INC(INDIRECT(D1),2)</f>
+        <v>136</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <f t="shared" ca="1" si="11"/>
+        <v>12.4</v>
+      </c>
+      <c r="G19">
+        <f t="shared" ca="1" si="11"/>
+        <v>78</v>
+      </c>
+      <c r="H19">
+        <f t="shared" ca="1" si="11"/>
+        <v>560</v>
+      </c>
+      <c r="I19">
+        <f t="shared" ca="1" si="11"/>
+        <v>977</v>
+      </c>
+      <c r="J19">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <f t="shared" ca="1" si="11"/>
+        <v>25</v>
+      </c>
+      <c r="L19">
+        <f t="shared" ca="1" si="11"/>
+        <v>92</v>
+      </c>
+      <c r="M19">
+        <f t="shared" ca="1" si="11"/>
+        <v>34</v>
+      </c>
+      <c r="N19">
+        <f t="shared" ca="1" si="11"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B21" s="6" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B21" s="6" t="s">
+      <c r="C21" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="22" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
+      <c r="C22">
+        <f ca="1">_xlfn.QUARTILE.INC(INDIRECT(C1),1)</f>
+        <v>82.699999999999989</v>
+      </c>
+      <c r="D22">
+        <f t="shared" ref="D22:N22" ca="1" si="12">_xlfn.QUARTILE.INC(INDIRECT(D1),1)</f>
+        <v>130</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="F22">
+        <f t="shared" ca="1" si="12"/>
+        <v>11.55</v>
+      </c>
+      <c r="G22">
+        <f t="shared" ca="1" si="12"/>
+        <v>62.5</v>
+      </c>
+      <c r="H22">
+        <f t="shared" ca="1" si="12"/>
+        <v>530.5</v>
+      </c>
+      <c r="I22">
+        <f t="shared" ca="1" si="12"/>
+        <v>964.5</v>
+      </c>
+      <c r="J22">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <f t="shared" ca="1" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="L22">
+        <f t="shared" ca="1" si="12"/>
+        <v>80.5</v>
+      </c>
+      <c r="M22">
+        <f t="shared" ca="1" si="12"/>
+        <v>27.5</v>
+      </c>
+      <c r="N22">
+        <f t="shared" ca="1" si="12"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B23" t="s">
+      <c r="C23">
+        <f ca="1">_xlfn.QUARTILE.INC(INDIRECT(C1),3)</f>
+        <v>120.65</v>
+      </c>
+      <c r="D23">
+        <f t="shared" ref="D23:N23" ca="1" si="13">_xlfn.QUARTILE.INC(INDIRECT(D1),3)</f>
+        <v>146</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <f t="shared" ca="1" si="13"/>
+        <v>13.2</v>
+      </c>
+      <c r="G23">
+        <f t="shared" ca="1" si="13"/>
+        <v>104.5</v>
+      </c>
+      <c r="H23">
+        <f t="shared" ca="1" si="13"/>
+        <v>593</v>
+      </c>
+      <c r="I23">
+        <f t="shared" ca="1" si="13"/>
+        <v>992</v>
+      </c>
+      <c r="J23">
+        <f t="shared" ca="1" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <f t="shared" ca="1" si="13"/>
+        <v>41.5</v>
+      </c>
+      <c r="L23">
+        <f t="shared" ca="1" si="13"/>
+        <v>104</v>
+      </c>
+      <c r="M23">
+        <f t="shared" ca="1" si="13"/>
+        <v>38.5</v>
+      </c>
+      <c r="N23">
+        <f t="shared" ca="1" si="13"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24">
+        <f ca="1">C23-C22</f>
+        <v>37.950000000000017</v>
+      </c>
+      <c r="D24">
+        <f t="shared" ref="D24:N24" ca="1" si="14">D23-D22</f>
+        <v>16</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <f t="shared" ca="1" si="14"/>
+        <v>1.6499999999999986</v>
+      </c>
+      <c r="G24">
+        <f t="shared" ca="1" si="14"/>
+        <v>42</v>
+      </c>
+      <c r="H24">
+        <f t="shared" ca="1" si="14"/>
+        <v>62.5</v>
+      </c>
+      <c r="I24">
+        <f t="shared" ca="1" si="14"/>
+        <v>27.5</v>
+      </c>
+      <c r="J24">
+        <f t="shared" ca="1" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <f t="shared" ca="1" si="14"/>
+        <v>31.5</v>
+      </c>
+      <c r="L24">
+        <f t="shared" ca="1" si="14"/>
+        <v>23.5</v>
+      </c>
+      <c r="M24">
+        <f t="shared" ca="1" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="N24">
+        <f t="shared" ca="1" si="14"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
+      <c r="C26">
+        <f ca="1">C22-1.5*C24</f>
+        <v>25.774999999999963</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26:N26" ca="1" si="15">D22-1.5*D24</f>
+        <v>106</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="15"/>
+        <v>-1.5</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ca="1" si="15"/>
+        <v>9.0750000000000028</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ca="1" si="15"/>
+        <v>-0.5</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ca="1" si="15"/>
+        <v>436.75</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ca="1" si="15"/>
+        <v>923.25</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ca="1" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ca="1" si="15"/>
+        <v>-37.25</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ca="1" si="15"/>
+        <v>45.25</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ca="1" si="15"/>
+        <v>11</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ca="1" si="15"/>
+        <v>-1.5</v>
+      </c>
+    </row>
+    <row r="27" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
+      <c r="C27">
+        <f ca="1">C23+1.5*C24</f>
+        <v>177.57500000000005</v>
+      </c>
+      <c r="D27">
+        <f t="shared" ref="D27:N27" ca="1" si="16">D23+1.5*D24</f>
+        <v>170</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="16"/>
+        <v>2.5</v>
+      </c>
+      <c r="F27">
+        <f t="shared" ca="1" si="16"/>
+        <v>15.674999999999997</v>
+      </c>
+      <c r="G27">
+        <f t="shared" ca="1" si="16"/>
+        <v>167.5</v>
+      </c>
+      <c r="H27">
+        <f t="shared" ca="1" si="16"/>
+        <v>686.75</v>
+      </c>
+      <c r="I27">
+        <f t="shared" ca="1" si="16"/>
+        <v>1033.25</v>
+      </c>
+      <c r="J27">
+        <f t="shared" ca="1" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <f t="shared" ca="1" si="16"/>
+        <v>88.75</v>
+      </c>
+      <c r="L27">
+        <f t="shared" ca="1" si="16"/>
+        <v>139.25</v>
+      </c>
+      <c r="M27">
+        <f t="shared" ca="1" si="16"/>
+        <v>55</v>
+      </c>
+      <c r="N27">
+        <f t="shared" ca="1" si="16"/>
+        <v>2.5</v>
+      </c>
+    </row>
+    <row r="29" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B29" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
+      <c r="C29">
+        <f ca="1">C26</f>
+        <v>25.774999999999963</v>
+      </c>
+      <c r="D29">
+        <f ca="1">C22</f>
+        <v>82.699999999999989</v>
+      </c>
+    </row>
+    <row r="30" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B30" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>47</v>
+      <c r="C30">
+        <f ca="1">C23</f>
+        <v>120.65</v>
+      </c>
+      <c r="D30">
+        <f ca="1">C27</f>
+        <v>177.57500000000005</v>
       </c>
     </row>
   </sheetData>
@@ -6811,6 +7958,763 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{455ADAD3-865D-4CEA-B17E-2B659750FB2B}">
+  <dimension ref="A1:E48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>45.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>67.599999999999994</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>95.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>97.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>98.7</v>
+      </c>
+      <c r="E23">
+        <f>47/2</f>
+        <v>23.5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="6">
+        <v>24</v>
+      </c>
+      <c r="B25" s="6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>104.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>105.9</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>106.6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>107.2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>108.3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>109.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>112.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33">
+        <v>114.3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34">
+        <v>115.1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35">
+        <v>117.2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36">
+        <v>119.7</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37">
+        <v>121.6</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38">
+        <v>123.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39">
+        <v>127.2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40">
+        <v>132.4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>135.5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>137.80000000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>140.80000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44">
+        <v>145.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45">
+        <v>149.30000000000001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46">
+        <v>154.30000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47">
+        <v>157.69999999999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48">
+        <v>161.80000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="B2:B48">
+    <sortCondition ref="B1:B48"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176AD642-06BB-4945-95DF-3EF631AAAD6D}">
+  <dimension ref="A1:E50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="10.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>45.5</v>
+      </c>
+      <c r="B3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>52.3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>56.6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>60.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>64.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>67.599999999999994</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>70.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>73.2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>78.099999999999994</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>79.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>82.3</v>
+      </c>
+      <c r="E14">
+        <v>82.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>83.1</v>
+      </c>
+      <c r="E15">
+        <v>83.1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>84.9</v>
+      </c>
+      <c r="E16">
+        <v>84.9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>85.6</v>
+      </c>
+      <c r="E17">
+        <v>85.6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>88</v>
+      </c>
+      <c r="E18">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>92.3</v>
+      </c>
+      <c r="E19">
+        <v>92.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>94.3</v>
+      </c>
+      <c r="E20">
+        <v>94.3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>95.3</v>
+      </c>
+      <c r="E21">
+        <v>95.3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>96.8</v>
+      </c>
+      <c r="E22">
+        <v>96.8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>97.4</v>
+      </c>
+      <c r="E23">
+        <v>97.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>98.7</v>
+      </c>
+      <c r="E24">
+        <v>98.7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>99.9</v>
+      </c>
+      <c r="E25">
+        <v>99.9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="6">
+        <v>103</v>
+      </c>
+      <c r="E26" s="6">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>104.3</v>
+      </c>
+      <c r="E27">
+        <v>104.3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>105.9</v>
+      </c>
+      <c r="E28">
+        <v>105.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>106.6</v>
+      </c>
+      <c r="E29">
+        <v>106.6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>107.2</v>
+      </c>
+      <c r="E30">
+        <v>107.2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>108.3</v>
+      </c>
+      <c r="E31">
+        <v>108.3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>109.4</v>
+      </c>
+      <c r="E32">
+        <v>109.4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>112.1</v>
+      </c>
+      <c r="E33">
+        <v>112.1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>114.3</v>
+      </c>
+      <c r="E34">
+        <v>114.3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>115.1</v>
+      </c>
+      <c r="E35">
+        <v>115.1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>117.2</v>
+      </c>
+      <c r="E36">
+        <v>117.2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>119.7</v>
+      </c>
+      <c r="E37">
+        <v>119.7</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>121.6</v>
+      </c>
+      <c r="E38">
+        <v>121.6</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>123.4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>127.2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>132.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>135.5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>137.80000000000001</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>140.80000000000001</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>145.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>149.30000000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>154.30000000000001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>157.69999999999999</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>161.80000000000001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>250</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C61EDDF1-8A60-4619-A460-D6C43B81A410}">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -6822,10 +8726,10 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -6876,7 +8780,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
@@ -6891,10 +8795,10 @@
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L1" t="s">
         <v>0</v>
@@ -6908,7 +8812,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.25">
@@ -7009,7 +8913,7 @@
     </row>
     <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B15" s="3">
         <v>1</v>
@@ -7024,7 +8928,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D2E86E-9802-4E50-9451-728E3A43240D}">
   <dimension ref="L3:R3"/>
   <sheetViews>
@@ -7039,131 +8943,10 @@
   <sheetData>
     <row r="3" spans="12:18" ht="18.75" x14ac:dyDescent="0.3">
       <c r="L3" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="R3" t="s">
-        <v>56</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FB8F047-63CC-49EB-90B1-046E40D3C508}">
-  <dimension ref="L3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="3" spans="12:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="L3" s="5" t="s">
-        <v>57</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C63F9E2-7EAA-4A70-B52E-D02A007E6775}">
-  <dimension ref="A1:H9"/>
-  <sheetViews>
-    <sheetView zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C1" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="8">
-        <v>0.2</v>
-      </c>
-      <c r="C2" s="8">
-        <v>0.3</v>
-      </c>
-      <c r="D2" s="8">
-        <v>0.5</v>
-      </c>
-      <c r="E2" t="s">
-        <v>69</v>
-      </c>
-      <c r="H2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>63</v>
-      </c>
-      <c r="B4">
-        <v>121</v>
-      </c>
-      <c r="C4">
-        <v>288</v>
-      </c>
-      <c r="D4">
-        <v>91</v>
-      </c>
-      <c r="E4">
-        <f>SUM(B4:D4)</f>
-        <v>500</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>62</v>
-      </c>
-      <c r="B5">
-        <f>B2*$E$4</f>
-        <v>100</v>
-      </c>
-      <c r="C5">
-        <f t="shared" ref="C5:D5" si="0">C2*$E$4</f>
-        <v>150</v>
-      </c>
-      <c r="D5">
-        <f t="shared" si="0"/>
-        <v>250</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H6" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H9" t="s">
-        <v>68</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/Crime_R_Class_20Nov2021.xlsx
+++ b/Crime_R_Class_20Nov2021.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\GitHub\StatisticsCaseStudy\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2480B363-CFC7-430F-9383-6ADED0137C64}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70E7AC96-2A2D-49E2-8959-5AD35D19FB09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="687" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="687" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Crime_R" sheetId="1" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="94">
   <si>
     <t>CrimeRate</t>
   </si>
@@ -287,6 +287,72 @@
   </si>
   <si>
     <t>IQR Range</t>
+  </si>
+  <si>
+    <t>Null H0 : Its part of the population</t>
+  </si>
+  <si>
+    <t>Alternate : Its not part of the population</t>
+  </si>
+  <si>
+    <t>confidence - 95%</t>
+  </si>
+  <si>
+    <t>Alpha = 0.05</t>
+  </si>
+  <si>
+    <t>p stat &lt; Critical P value =&gt; Reject</t>
+  </si>
+  <si>
+    <t>Critical P Value = 1.77</t>
+  </si>
+  <si>
+    <t>0.003 &lt; Critical P value =&gt; Reject</t>
+  </si>
+  <si>
+    <t>t-Test: Paired Two Sample for Means</t>
+  </si>
+  <si>
+    <t>Variance</t>
+  </si>
+  <si>
+    <t>Observations</t>
+  </si>
+  <si>
+    <t>Pearson Correlation</t>
+  </si>
+  <si>
+    <t>Hypothesized Mean Difference</t>
+  </si>
+  <si>
+    <t>df</t>
+  </si>
+  <si>
+    <t>t Stat</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) one-tail</t>
+  </si>
+  <si>
+    <t>t Critical one-tail</t>
+  </si>
+  <si>
+    <t>P(T&lt;=t) two-tail</t>
+  </si>
+  <si>
+    <t>t Critical two-tail</t>
+  </si>
+  <si>
+    <t>Null - No Diff</t>
+  </si>
+  <si>
+    <t>Alternate - yes there is Diff</t>
+  </si>
+  <si>
+    <t>t stat &lt; Crit</t>
+  </si>
+  <si>
+    <t>Reject = There is a diff in the Crime Rate</t>
   </si>
 </sst>
 </file>
@@ -805,7 +871,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
@@ -820,6 +886,10 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -934,7 +1004,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>'2_Freq_CrimeRate'!$B$1</c:f>
+              <c:f>'2_Freq_CrimeRate'!$B$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -955,7 +1025,7 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>'2_Freq_CrimeRate'!$A$2:$A$15</c:f>
+              <c:f>'2_Freq_CrimeRate'!$A$4:$A$17</c:f>
               <c:strCache>
                 <c:ptCount val="14"/>
                 <c:pt idx="0">
@@ -1005,7 +1075,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>'2_Freq_CrimeRate'!$B$2:$B$15</c:f>
+              <c:f>'2_Freq_CrimeRate'!$B$4:$B$17</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="14"/>
@@ -1872,6 +1942,129 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>299429</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>418513</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>502227</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>86591</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2" descr="Mean, Median, and Mode in Statistics | by Nhan Tran | Medium">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{268662FC-E1BC-4AD2-907A-DA947E87622B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="32600" r="31878"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="10456543" y="609013"/>
+          <a:ext cx="2627343" cy="4066896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>219075</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>238125</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>408018</xdr:colOff>
+      <xdr:row>24</xdr:row>
+      <xdr:rowOff>47346</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1" descr="Mean, Median, and Mode in Statistics | by Nhan Tran | Medium">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C94AF124-4DF2-42EB-843B-60EEDF61EF68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill rotWithShape="1">
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:srcRect l="32600" r="31878"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="7362825" y="619125"/>
+          <a:ext cx="2627343" cy="4066896"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:extLst>
+          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:solidFill>
+                <a:srgbClr val="FFFFFF"/>
+              </a:solidFill>
+            </a14:hiddenFill>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -2140,8 +2333,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA48"/>
   <sheetViews>
-    <sheetView zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="J13" sqref="D10:J13"/>
+    <sheetView tabSelected="1" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
+      <selection activeCell="O1" activeCellId="1" sqref="A1:A1048576 O1:O1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6696,10 +6889,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:B24"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+      <selection activeCell="B2" sqref="B2:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6708,7 +6901,7 @@
     <col min="2" max="2" width="25.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -6716,7 +6909,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>45.5</v>
       </c>
@@ -6724,7 +6917,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>64.2</v>
       </c>
@@ -6732,15 +6925,21 @@
         <v>105.9</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>67.599999999999994</v>
       </c>
       <c r="B4">
         <v>115.1</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="F4">
+        <v>97</v>
+      </c>
+      <c r="G4">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>70.5</v>
       </c>
@@ -6748,7 +6947,7 @@
         <v>117.2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>73.2</v>
       </c>
@@ -6756,7 +6955,7 @@
         <v>132.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>75</v>
       </c>
@@ -6764,7 +6963,7 @@
         <v>149.30000000000001</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>82.3</v>
       </c>
@@ -6772,7 +6971,7 @@
         <v>161.80000000000001</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>83.1</v>
       </c>
@@ -6780,7 +6979,7 @@
         <v>56.6</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>84.9</v>
       </c>
@@ -6788,7 +6987,7 @@
         <v>60.3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>92.3</v>
       </c>
@@ -6796,7 +6995,7 @@
         <v>79.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>94.3</v>
       </c>
@@ -6804,7 +7003,7 @@
         <v>85.6</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>95.3</v>
       </c>
@@ -6812,7 +7011,7 @@
         <v>96.8</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>104.3</v>
       </c>
@@ -6820,7 +7019,7 @@
         <v>97.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>107.2</v>
       </c>
@@ -6828,7 +7027,7 @@
         <v>98.7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>108.3</v>
       </c>
@@ -6910,7 +7109,7 @@
   <dimension ref="A1:AC30"/>
   <sheetViews>
     <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:XFD11"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8367,7 +8566,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{176AD642-06BB-4945-95DF-3EF631AAAD6D}">
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
@@ -8782,146 +8981,171 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:L15"/>
+  <dimension ref="A1:L17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="21.42578125" customWidth="1"/>
+    <col min="12" max="12" width="43.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A1" s="4" t="s">
+      <c r="L1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="75.75" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="L2" s="10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B3" s="4" t="s">
         <v>31</v>
-      </c>
-      <c r="L1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>40</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A3" s="1">
-        <v>50</v>
-      </c>
-      <c r="B3" s="2">
-        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="1">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="B4" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="1">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="B5" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="1">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="B6" s="2">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="L6" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="1">
-        <v>90</v>
+        <v>70</v>
       </c>
       <c r="B7" s="2">
-        <v>5</v>
+        <v>3</v>
+      </c>
+      <c r="L7" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="1">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="B8" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="1">
-        <v>110</v>
+        <v>90</v>
       </c>
       <c r="B9" s="2">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="L9" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="1">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="B10" s="2">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="L10" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="1">
-        <v>130</v>
+        <v>110</v>
       </c>
       <c r="B11" s="2">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="L11" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="1">
-        <v>140</v>
+        <v>120</v>
       </c>
       <c r="B12" s="2">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="1">
-        <v>150</v>
+        <v>130</v>
       </c>
       <c r="B13" s="2">
         <v>3</v>
       </c>
+      <c r="L13" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14" s="1">
+        <v>140</v>
+      </c>
+      <c r="B14" s="2">
+        <v>3</v>
+      </c>
+      <c r="L14" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>150</v>
+      </c>
+      <c r="B15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
         <v>160</v>
       </c>
-      <c r="B14" s="2">
+      <c r="B16" s="2">
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+    <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B15" s="3">
+      <c r="B17" s="3">
         <v>1</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:A14">
-    <sortCondition ref="A2"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:A16">
+    <sortCondition ref="A4"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -8930,18 +9154,26 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{09D2E86E-9802-4E50-9451-728E3A43240D}">
-  <dimension ref="L3:R3"/>
+  <dimension ref="A2:R23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q9" sqref="Q9"/>
+      <selection activeCell="B13" activeCellId="1" sqref="B11 B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.42578125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="19.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="12:18" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" ht="19.5" thickBot="1" x14ac:dyDescent="0.35">
       <c r="L3" s="5" t="s">
         <v>49</v>
       </c>
@@ -8949,7 +9181,142 @@
         <v>55</v>
       </c>
     </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="2">
+        <v>98.839130434782604</v>
+      </c>
+      <c r="C5" s="2">
+        <v>107.8521739130435</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B6" s="2">
+        <v>1027.2215810276723</v>
+      </c>
+      <c r="C6" s="2">
+        <v>647.49533596837534</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="B7" s="2">
+        <v>23</v>
+      </c>
+      <c r="C7" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="B8" s="2">
+        <v>-2.25556562903639E-4</v>
+      </c>
+      <c r="C8" s="2"/>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0</v>
+      </c>
+      <c r="C9" s="2"/>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B10" s="2">
+        <v>22</v>
+      </c>
+      <c r="C10" s="2"/>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="B11" s="11">
+        <v>-1.0561290348885655</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="2">
+        <v>0.15118481386187271</v>
+      </c>
+      <c r="C12" s="2"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="B13" s="11">
+        <v>1.7171443743802424</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="2">
+        <v>0.30236962772374543</v>
+      </c>
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="B15" s="3">
+        <v>2.0738730679040258</v>
+      </c>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B20" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>92</v>
+      </c>
+      <c r="C23" t="s">
+        <v>93</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>